--- a/data/trans_orig/IP07C20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C20-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF763A37-21AD-489E-91AF-D91DD814C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B52EC15-64A7-408E-A12A-F2A901CC590C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC229D44-0ED0-42A1-9BAB-06D684A9BF22}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A6A9BB2-891E-4E8C-A832-BDF40C5AA0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="502">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>23,13%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,10 +106,10 @@
     <t>37,04%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>37,58%</t>
@@ -118,1459 +118,1432 @@
     <t>26,95%</t>
   </si>
   <si>
-    <t>49,94%</t>
+    <t>50,16%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>10,6%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>4,61%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE11EE79-2FA4-438C-B811-32924588B567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524AD71C-CAC6-4F98-839B-21A29CBECEA8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2450,7 +2423,7 @@
         <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2438,13 @@
         <v>88810</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>135</v>
@@ -2480,28 +2453,28 @@
         <v>91981</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>268</v>
       </c>
       <c r="N11" s="7">
-        <v>180790</v>
+        <v>180791</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2489,13 @@
         <v>65131</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>81</v>
@@ -2531,13 +2504,13 @@
         <v>53698</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>180</v>
@@ -2546,13 +2519,13 @@
         <v>118829</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2540,13 @@
         <v>9065</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2582,13 +2555,13 @@
         <v>5233</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -2597,13 +2570,13 @@
         <v>14298</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2591,13 @@
         <v>3637</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2633,13 +2606,13 @@
         <v>2665</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2648,13 +2621,13 @@
         <v>6302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2669,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407699</v>
+        <v>407700</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>57</v>
@@ -2710,7 +2683,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2722,13 +2695,13 @@
         <v>19131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2737,13 +2710,13 @@
         <v>17399</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2752,13 +2725,13 @@
         <v>36530</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2746,13 @@
         <v>20775</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -2788,13 +2761,13 @@
         <v>23240</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -2803,13 +2776,13 @@
         <v>44015</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2797,13 @@
         <v>8440</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -2839,13 +2812,13 @@
         <v>10556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -2854,13 +2827,13 @@
         <v>18996</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2854,7 @@
         <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2890,13 +2863,13 @@
         <v>1598</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2905,13 +2878,13 @@
         <v>1598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2899,13 @@
         <v>695</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2941,13 +2914,13 @@
         <v>1453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2956,13 +2929,13 @@
         <v>2148</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3003,13 @@
         <v>79801</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -3045,13 +3018,13 @@
         <v>63499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -3060,13 +3033,13 @@
         <v>143299</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3054,13 @@
         <v>125595</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>193</v>
@@ -3096,13 +3069,13 @@
         <v>132513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>381</v>
@@ -3111,13 +3084,13 @@
         <v>258108</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3105,13 @@
         <v>89409</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>117</v>
@@ -3147,13 +3120,13 @@
         <v>77512</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>252</v>
@@ -3162,13 +3135,13 @@
         <v>166921</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3156,13 @@
         <v>10442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -3198,13 +3171,13 @@
         <v>11710</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3213,13 +3186,13 @@
         <v>22151</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3207,13 @@
         <v>4332</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3249,13 +3222,13 @@
         <v>5412</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -3264,13 +3237,13 @@
         <v>9744</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3299,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06ED224-8C04-4093-BAFA-D94E863829B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB1E43B-461A-4724-B2F2-4A21F65E7DB1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3362,7 +3335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3469,13 +3442,13 @@
         <v>16335</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3484,13 +3457,13 @@
         <v>19547</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3499,13 +3472,13 @@
         <v>35882</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3493,13 @@
         <v>11522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -3535,13 +3508,13 @@
         <v>12525</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -3550,13 +3523,13 @@
         <v>24047</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3544,13 @@
         <v>11960</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -3586,13 +3559,13 @@
         <v>14099</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3601,13 +3574,13 @@
         <v>26059</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3595,13 @@
         <v>3419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3637,13 +3610,13 @@
         <v>5455</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3652,13 +3625,13 @@
         <v>8874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3646,13 @@
         <v>1925</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3694,7 +3667,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3703,13 +3676,13 @@
         <v>1925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3750,13 @@
         <v>75367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3792,13 +3765,13 @@
         <v>63418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -3807,13 +3780,13 @@
         <v>138785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3801,13 @@
         <v>80994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -3843,13 +3816,13 @@
         <v>78630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>231</v>
@@ -3858,13 +3831,13 @@
         <v>159624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3852,13 @@
         <v>49376</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -3894,13 +3867,13 @@
         <v>46908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
         <v>141</v>
@@ -3909,13 +3882,13 @@
         <v>96284</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3903,13 @@
         <v>11200</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3945,13 +3918,13 @@
         <v>5179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3960,13 +3933,13 @@
         <v>16379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3954,13 @@
         <v>7182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3996,13 +3969,13 @@
         <v>3269</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -4011,13 +3984,13 @@
         <v>10451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,7 +4046,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4088,10 +4061,10 @@
         <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -4100,13 +4073,13 @@
         <v>31364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -4115,13 +4088,13 @@
         <v>51936</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4109,13 @@
         <v>23110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4151,13 +4124,13 @@
         <v>19999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4166,13 +4139,13 @@
         <v>43110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4160,13 @@
         <v>8261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4202,13 +4175,13 @@
         <v>9437</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -4217,13 +4190,13 @@
         <v>17698</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4211,13 @@
         <v>3257</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4259,7 +4232,7 @@
         <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4268,13 +4241,13 @@
         <v>3257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4262,13 @@
         <v>951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4310,7 +4283,7 @@
         <v>51</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4319,13 +4292,13 @@
         <v>951</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4366,13 @@
         <v>112274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>161</v>
@@ -4408,13 +4381,13 @@
         <v>114329</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -4423,13 +4396,13 @@
         <v>226603</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4417,13 @@
         <v>115626</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -4459,13 +4432,13 @@
         <v>111154</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
@@ -4474,13 +4447,13 @@
         <v>226780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4468,13 @@
         <v>69596</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -4510,13 +4483,13 @@
         <v>70444</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -4525,13 +4498,13 @@
         <v>140041</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4519,13 @@
         <v>17876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4561,13 +4534,13 @@
         <v>10634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -4576,13 +4549,13 @@
         <v>28510</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4570,13 @@
         <v>10058</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -4612,13 +4585,13 @@
         <v>3269</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4627,13 +4600,13 @@
         <v>13328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4662,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8764088-5DF0-4215-AA6E-7B79A4D797D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D87B9-11E4-4B15-9535-AB9A1EABBC05}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4725,7 +4698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4832,13 +4805,13 @@
         <v>6268</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4847,13 +4820,13 @@
         <v>4139</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4862,13 +4835,13 @@
         <v>10407</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4856,13 @@
         <v>15034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4898,13 +4871,13 @@
         <v>5952</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4913,13 +4886,13 @@
         <v>20986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4907,13 @@
         <v>8269</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4949,13 +4922,13 @@
         <v>14172</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -4964,13 +4937,13 @@
         <v>22442</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4958,13 @@
         <v>6340</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5000,13 +4973,13 @@
         <v>4888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5015,13 +4988,13 @@
         <v>11228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5009,13 @@
         <v>727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5051,13 +5024,13 @@
         <v>1455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5066,13 +5039,13 @@
         <v>2182</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5113,13 @@
         <v>58555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -5155,13 +5128,13 @@
         <v>54579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -5170,13 +5143,13 @@
         <v>113134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5164,13 @@
         <v>85201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -5206,13 +5179,13 @@
         <v>86786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>240</v>
@@ -5221,13 +5194,13 @@
         <v>171987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5215,13 @@
         <v>70667</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>98</v>
@@ -5257,13 +5230,13 @@
         <v>69801</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -5272,13 +5245,13 @@
         <v>140467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5266,13 @@
         <v>15213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5308,13 +5281,13 @@
         <v>20107</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5323,13 +5296,13 @@
         <v>35320</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5317,13 @@
         <v>7427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -5359,13 +5332,13 @@
         <v>11272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -5374,13 +5347,13 @@
         <v>18698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,7 +5409,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5448,13 +5421,13 @@
         <v>23026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5463,13 +5436,13 @@
         <v>31038</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -5478,13 +5451,13 @@
         <v>54064</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5472,13 @@
         <v>30748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5514,13 +5487,13 @@
         <v>17714</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5529,13 +5502,13 @@
         <v>48462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5523,13 @@
         <v>18493</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -5565,13 +5538,13 @@
         <v>16213</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -5580,13 +5553,13 @@
         <v>34706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5574,13 @@
         <v>2642</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5616,13 +5589,13 @@
         <v>4225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5631,13 +5604,13 @@
         <v>6867</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5625,13 @@
         <v>593</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>455</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5667,13 +5640,13 @@
         <v>1107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5682,13 +5655,13 @@
         <v>1700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5729,13 @@
         <v>87849</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -5771,13 +5744,13 @@
         <v>89756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -5786,13 +5759,13 @@
         <v>177605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5780,13 @@
         <v>130983</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>472</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>158</v>
@@ -5822,13 +5795,13 @@
         <v>110452</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>338</v>
@@ -5837,13 +5810,13 @@
         <v>241436</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>485</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5831,13 @@
         <v>97429</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>488</v>
+        <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7">
         <v>142</v>
@@ -5873,13 +5846,13 @@
         <v>100186</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="M24" s="7">
         <v>275</v>
@@ -5888,13 +5861,13 @@
         <v>197615</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5882,13 @@
         <v>24195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5924,13 +5897,13 @@
         <v>29220</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -5939,13 +5912,13 @@
         <v>53415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5933,13 @@
         <v>8746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>84</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5975,13 +5948,13 @@
         <v>13833</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -5990,13 +5963,13 @@
         <v>22580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,7 +6025,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C20-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B52EC15-64A7-408E-A12A-F2A901CC590C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{785627D9-2ABB-4B41-85EE-677CAB880D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A6A9BB2-891E-4E8C-A832-BDF40C5AA0F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E3EB0CC-C6AD-4C9B-A43A-E45A2A7D8BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="499">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1477 +73,1468 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>15,36%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>29,15%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>4,51%</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524AD71C-CAC6-4F98-839B-21A29CBECEA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4E7FB8-3004-43FF-AD15-D8702B47CF4B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2073,10 +2064,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>9999</v>
+        <v>9290</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2088,10 +2079,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>9290</v>
+        <v>9999</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2124,10 +2115,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>16010</v>
+        <v>17293</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2139,10 +2130,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>17293</v>
+        <v>16010</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2175,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>15838</v>
+        <v>13259</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2190,10 +2181,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>13259</v>
+        <v>15838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2226,10 +2217,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>1377</v>
+        <v>4878</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2241,10 +2232,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>4878</v>
+        <v>1377</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2277,31 +2268,31 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1293</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>54</v>
@@ -2316,7 +2307,7 @@
         <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>56</v>
@@ -2328,25 +2319,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -2381,10 +2372,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>50671</v>
+        <v>36810</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -2396,10 +2387,10 @@
         <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>36810</v>
+        <v>50671</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -2423,7 +2414,7 @@
         <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2423,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>135</v>
+      </c>
+      <c r="D11" s="7">
+        <v>91981</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="7">
         <v>133</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>88810</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="7">
-        <v>135</v>
-      </c>
-      <c r="I11" s="7">
-        <v>91981</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>268</v>
       </c>
       <c r="N11" s="7">
-        <v>180791</v>
+        <v>180790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,34 +2474,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>53698</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="7">
         <v>99</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>65131</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="7">
-        <v>53698</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>180</v>
@@ -2519,13 +2510,13 @@
         <v>118829</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,34 +2525,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5233</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="7">
         <v>14</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>9065</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5233</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -2570,13 +2561,13 @@
         <v>14298</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,34 +2576,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2665</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3637</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2665</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2621,13 +2612,13 @@
         <v>6302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,25 +2627,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>217314</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -2669,7 +2660,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407700</v>
+        <v>407699</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>57</v>
@@ -2683,40 +2674,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17399</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7">
         <v>29</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>19131</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17399</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2725,13 +2716,13 @@
         <v>36530</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,34 +2731,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23240</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="7">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>20775</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23240</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -2776,13 +2767,13 @@
         <v>44015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,34 +2782,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10556</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8440</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10556</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -2827,13 +2818,13 @@
         <v>18996</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,34 +2833,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1598</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2878,13 +2869,13 @@
         <v>1598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,34 +2884,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1453</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>695</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1453</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2929,13 +2920,13 @@
         <v>2148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,25 +2935,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -2997,34 +2988,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>97</v>
+      </c>
+      <c r="D22" s="7">
+        <v>63499</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7">
         <v>120</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>79801</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="7">
-        <v>97</v>
-      </c>
-      <c r="I22" s="7">
-        <v>63499</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -3033,13 +3024,13 @@
         <v>143299</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,34 +3039,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>193</v>
+      </c>
+      <c r="D23" s="7">
+        <v>132513</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="7">
         <v>188</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>125595</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="7">
-        <v>193</v>
-      </c>
-      <c r="I23" s="7">
-        <v>132513</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>381</v>
@@ -3084,13 +3075,13 @@
         <v>258108</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,34 +3090,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>117</v>
+      </c>
+      <c r="D24" s="7">
+        <v>77512</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
         <v>135</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>89409</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="7">
-        <v>117</v>
-      </c>
-      <c r="I24" s="7">
-        <v>77512</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>252</v>
@@ -3135,13 +3126,13 @@
         <v>166921</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,34 +3141,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11710</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
         <v>16</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>10442</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="7">
-        <v>17</v>
-      </c>
-      <c r="I25" s="7">
-        <v>11710</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3186,13 +3177,13 @@
         <v>22151</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,34 +3192,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5412</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
         <v>7</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>4332</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5412</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -3237,13 +3228,13 @@
         <v>9744</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,25 +3243,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>309578</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -3299,7 +3290,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB1E43B-461A-4724-B2F2-4A21F65E7DB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDEF33-1D18-43EA-B8DC-53EBEF7D6E9A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3335,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3436,34 +3427,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19547</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="7">
         <v>23</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>16335</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="7">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19547</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3472,13 +3463,13 @@
         <v>35882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,34 +3478,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12525</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>11522</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>12525</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -3523,13 +3514,13 @@
         <v>24047</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,34 +3529,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14099</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="7">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>11960</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H6" s="7">
-        <v>20</v>
-      </c>
-      <c r="I6" s="7">
-        <v>14099</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3574,13 +3565,13 @@
         <v>26059</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,34 +3580,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5455</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>3419</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5455</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3625,13 +3616,13 @@
         <v>8874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,34 +3631,34 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1925</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3676,13 +3667,13 @@
         <v>1925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,25 +3682,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -3744,34 +3735,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="7">
         <v>110</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>75367</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="7">
-        <v>90</v>
-      </c>
-      <c r="I10" s="7">
-        <v>63418</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -3780,13 +3771,13 @@
         <v>138785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,34 +3786,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7">
+        <v>78630</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="7">
         <v>117</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>80994</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="7">
-        <v>114</v>
-      </c>
-      <c r="I11" s="7">
-        <v>78630</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>231</v>
@@ -3831,13 +3822,13 @@
         <v>159624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,34 +3837,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7">
+        <v>46908</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="7">
         <v>74</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>49376</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="7">
-        <v>67</v>
-      </c>
-      <c r="I12" s="7">
-        <v>46908</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>141</v>
@@ -3882,13 +3873,13 @@
         <v>96284</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,34 +3888,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5179</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>11200</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5179</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3933,13 +3924,13 @@
         <v>16379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,34 +3939,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3269</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>7182</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3269</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3984,13 +3975,13 @@
         <v>10451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,25 +3990,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>283</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197405</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224118</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>283</v>
-      </c>
-      <c r="I15" s="7">
-        <v>197405</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -4046,40 +4037,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31364</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20572</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>31364</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -4088,13 +4079,13 @@
         <v>51936</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,34 +4094,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19999</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
         <v>35</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>23110</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7">
-        <v>19999</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4139,13 +4130,13 @@
         <v>43110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,34 +4145,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9437</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8261</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9437</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -4190,13 +4181,13 @@
         <v>17698</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,34 +4196,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>3257</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>289</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>3257</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4241,13 +4232,13 @@
         <v>3257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,34 +4247,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>951</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4292,13 +4283,13 @@
         <v>951</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,25 +4298,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4360,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>161</v>
+      </c>
+      <c r="D22" s="7">
+        <v>114329</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="7">
         <v>164</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>112274</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H22" s="7">
-        <v>161</v>
-      </c>
-      <c r="I22" s="7">
-        <v>114329</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
       </c>
       <c r="N22" s="7">
-        <v>226603</v>
+        <v>226604</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>160</v>
+      </c>
+      <c r="D23" s="7">
+        <v>111154</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H23" s="7">
         <v>168</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>115626</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="7">
-        <v>160</v>
-      </c>
-      <c r="I23" s="7">
-        <v>111154</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
       </c>
       <c r="N23" s="7">
-        <v>226780</v>
+        <v>226781</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,34 +4453,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>70444</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" s="7">
         <v>103</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>69596</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" s="7">
-        <v>100</v>
-      </c>
-      <c r="I24" s="7">
-        <v>70444</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -4498,13 +4489,13 @@
         <v>140041</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,34 +4504,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10634</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="7">
         <v>25</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>17876</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H25" s="7">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10634</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -4549,13 +4540,13 @@
         <v>28510</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,34 +4555,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3269</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="7">
         <v>13</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>10058</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3269</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>85</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4600,13 +4591,13 @@
         <v>13328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,25 +4606,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>441</v>
+      </c>
+      <c r="D27" s="7">
+        <v>309831</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>325431</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>441</v>
-      </c>
-      <c r="I27" s="7">
-        <v>309831</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -4648,7 +4639,7 @@
         <v>914</v>
       </c>
       <c r="N27" s="7">
-        <v>635262</v>
+        <v>635263</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>57</v>
@@ -4662,7 +4653,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4681,7 +4672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D87B9-11E4-4B15-9535-AB9A1EABBC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDE71BA-9CC1-45FA-9AAF-AC9F4169A6CD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4698,7 +4689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4799,34 +4790,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4139</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>6268</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4139</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4835,13 +4826,13 @@
         <v>10407</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,34 +4841,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5952</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>15034</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5952</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4886,13 +4877,13 @@
         <v>20986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,34 +4892,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14172</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="7">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>8269</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H6" s="7">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7">
-        <v>14172</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -4937,13 +4928,13 @@
         <v>22442</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,34 +4943,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4888</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>6340</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4888</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>374</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4988,13 +4979,13 @@
         <v>11228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,34 +4994,34 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1455</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>727</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1455</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5039,13 +5030,13 @@
         <v>2182</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,25 +5045,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -5107,34 +5098,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7">
+        <v>54579</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H10" s="7">
         <v>81</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>58555</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H10" s="7">
-        <v>79</v>
-      </c>
-      <c r="I10" s="7">
-        <v>54579</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -5143,13 +5134,13 @@
         <v>113134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,34 +5149,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>124</v>
+      </c>
+      <c r="D11" s="7">
+        <v>86786</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="7">
         <v>116</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>85201</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H11" s="7">
-        <v>124</v>
-      </c>
-      <c r="I11" s="7">
-        <v>86786</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>240</v>
@@ -5194,13 +5185,13 @@
         <v>171987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,34 +5200,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7">
+        <v>69801</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="7">
         <v>96</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>70667</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H12" s="7">
-        <v>98</v>
-      </c>
-      <c r="I12" s="7">
-        <v>69801</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -5245,13 +5236,13 @@
         <v>140467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,34 +5251,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20107</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H13" s="7">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>15213</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20107</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5296,10 +5287,10 @@
         <v>35320</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>411</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>412</v>
@@ -5311,10 +5302,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>7427</v>
+        <v>11272</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>413</v>
@@ -5326,10 +5317,10 @@
         <v>415</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>11272</v>
+        <v>7427</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>416</v>
@@ -5350,10 +5341,10 @@
         <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,25 +5353,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>347</v>
+      </c>
+      <c r="D15" s="7">
+        <v>242544</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>347</v>
-      </c>
-      <c r="I15" s="7">
-        <v>242544</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -5409,40 +5400,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31038</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H16" s="7">
         <v>32</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>23026</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>31038</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -5451,13 +5442,13 @@
         <v>54064</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,34 +5457,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17714</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17" s="7">
         <v>43</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>30748</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="H17" s="7">
-        <v>26</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17714</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5502,13 +5493,13 @@
         <v>48462</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,34 +5508,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7">
+        <v>16213</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>18493</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="H18" s="7">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7">
-        <v>16213</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -5553,13 +5544,13 @@
         <v>34706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,34 +5559,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4225</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2642</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4225</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5604,10 +5595,10 @@
         <v>6867</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>454</v>
@@ -5619,34 +5610,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>593</v>
+        <v>1107</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>455</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>456</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1107</v>
+        <v>593</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5655,13 +5646,13 @@
         <v>1700</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>461</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,25 +5661,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7">
+        <v>70298</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>99</v>
-      </c>
-      <c r="I21" s="7">
-        <v>70298</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -5723,34 +5714,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>127</v>
+      </c>
+      <c r="D22" s="7">
+        <v>89756</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H22" s="7">
         <v>122</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>87849</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H22" s="7">
-        <v>127</v>
-      </c>
-      <c r="I22" s="7">
-        <v>89756</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -5759,13 +5750,13 @@
         <v>177605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,34 +5765,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>158</v>
+      </c>
+      <c r="D23" s="7">
+        <v>110452</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H23" s="7">
         <v>180</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>130983</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H23" s="7">
-        <v>158</v>
-      </c>
-      <c r="I23" s="7">
-        <v>110452</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>338</v>
@@ -5810,13 +5801,13 @@
         <v>241436</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>360</v>
+        <v>473</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,34 +5816,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>142</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100186</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H24" s="7">
         <v>133</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>97429</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="H24" s="7">
-        <v>142</v>
-      </c>
-      <c r="I24" s="7">
-        <v>100186</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M24" s="7">
         <v>275</v>
@@ -5861,13 +5852,13 @@
         <v>197615</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,34 +5867,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7">
+        <v>29220</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H25" s="7">
         <v>33</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>24195</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="H25" s="7">
-        <v>43</v>
-      </c>
-      <c r="I25" s="7">
-        <v>29220</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -5912,13 +5903,13 @@
         <v>53415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,34 +5918,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7">
+        <v>13833</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H26" s="7">
         <v>12</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>8746</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="7">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7">
-        <v>13833</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -5963,13 +5954,13 @@
         <v>22580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>500</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,25 +5969,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>490</v>
+      </c>
+      <c r="D27" s="7">
+        <v>343448</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>490</v>
-      </c>
-      <c r="I27" s="7">
-        <v>343448</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -6025,7 +6016,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
